--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
@@ -525,34 +525,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.54409876194116</v>
+        <v>1.553094</v>
       </c>
       <c r="H2">
-        <v>1.54409876194116</v>
+        <v>4.659282</v>
       </c>
       <c r="I2">
-        <v>0.6870671618088775</v>
+        <v>0.6859765954652609</v>
       </c>
       <c r="J2">
-        <v>0.6870671618088775</v>
+        <v>0.6859765954652609</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N2">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>19.01988106896846</v>
+        <v>19.190142322164</v>
       </c>
       <c r="R2">
-        <v>19.01988106896846</v>
+        <v>172.711280899476</v>
       </c>
       <c r="S2">
-        <v>0.6870671618088775</v>
+        <v>0.6859765954652609</v>
       </c>
       <c r="T2">
-        <v>0.6870671618088775</v>
+        <v>0.6859765954652609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,34 +587,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.703277983406312</v>
+        <v>0.7109686666666667</v>
       </c>
       <c r="H3">
-        <v>0.703277983406312</v>
+        <v>2.132906</v>
       </c>
       <c r="I3">
-        <v>0.3129328381911226</v>
+        <v>0.314023404534739</v>
       </c>
       <c r="J3">
-        <v>0.3129328381911226</v>
+        <v>0.314023404534739</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N3">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>8.662829044688882</v>
+        <v>8.784780509056446</v>
       </c>
       <c r="R3">
-        <v>8.662829044688882</v>
+        <v>79.06302458150802</v>
       </c>
       <c r="S3">
-        <v>0.3129328381911226</v>
+        <v>0.314023404534739</v>
       </c>
       <c r="T3">
-        <v>0.3129328381911226</v>
+        <v>0.314023404534739</v>
       </c>
     </row>
   </sheetData>
